--- a/data/trans_orig/P23_1_2016_2023_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P23_1_2016_2023_R-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>224410</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>197047</v>
+        <v>200530</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>250262</v>
+        <v>253308</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2978303684040278</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2615156578507868</v>
+        <v>0.266137336932314</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3321408720571735</v>
+        <v>0.3361827245501661</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>132</v>
@@ -763,19 +763,19 @@
         <v>136215</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>117546</v>
+        <v>117122</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>160910</v>
+        <v>160561</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1372770793630216</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1184623380663552</v>
+        <v>0.1180346977617691</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.162163865432056</v>
+        <v>0.1618122596304441</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>348</v>
@@ -784,19 +784,19 @@
         <v>360625</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>327544</v>
+        <v>328467</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>392965</v>
+        <v>394244</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2065734763502601</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1876240654266391</v>
+        <v>0.1881524600214491</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2250985429529621</v>
+        <v>0.2258309261071751</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>529072</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>503220</v>
+        <v>500174</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>556435</v>
+        <v>552952</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7021696315959721</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6678591279428261</v>
+        <v>0.6638172754498339</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7384843421492121</v>
+        <v>0.7338626630676861</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>758</v>
@@ -834,19 +834,19 @@
         <v>856051</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>831356</v>
+        <v>831705</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>874720</v>
+        <v>875144</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8627229206369784</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8378361345679439</v>
+        <v>0.8381877403695557</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8815376619336447</v>
+        <v>0.8819653022382309</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1303</v>
@@ -855,19 +855,19 @@
         <v>1385123</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1352783</v>
+        <v>1351504</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1418204</v>
+        <v>1417281</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7934265236497399</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7749014570470381</v>
+        <v>0.7741690738928249</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8123759345733611</v>
+        <v>0.8118475399785509</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>804915</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>759013</v>
+        <v>759915</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>847988</v>
+        <v>846211</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3876519215156332</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3655455343934848</v>
+        <v>0.3659796224255033</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4083961473839411</v>
+        <v>0.4075406989831592</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>640</v>
@@ -980,19 +980,19 @@
         <v>660959</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>620158</v>
+        <v>613541</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>705590</v>
+        <v>702181</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3327781364185017</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3122359352221752</v>
+        <v>0.3089046091218206</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3552492315869193</v>
+        <v>0.3535328683336809</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1387</v>
@@ -1001,19 +1001,19 @@
         <v>1465873</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1403385</v>
+        <v>1408905</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1526569</v>
+        <v>1534458</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3608242105406521</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3454428147054853</v>
+        <v>0.3468016353187365</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3757644514728861</v>
+        <v>0.3777063341702579</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>1271470</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1228397</v>
+        <v>1230174</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1317372</v>
+        <v>1316470</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6123480784843668</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5916038526160589</v>
+        <v>0.5924593010168409</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6344544656065153</v>
+        <v>0.6340203775744968</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1266</v>
@@ -1051,19 +1051,19 @@
         <v>1325225</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1280594</v>
+        <v>1284003</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1366026</v>
+        <v>1372643</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6672218635814983</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6447507684130807</v>
+        <v>0.646467131666319</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6877640647778247</v>
+        <v>0.6910953908781794</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2471</v>
@@ -1072,19 +1072,19 @@
         <v>2596695</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2535999</v>
+        <v>2528110</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2659183</v>
+        <v>2653663</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6391757894593478</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6242355485271139</v>
+        <v>0.622293665829742</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6545571852945146</v>
+        <v>0.6531983646812632</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>136154</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>114736</v>
+        <v>115109</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>156864</v>
+        <v>158208</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2494510917914391</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2102116778429369</v>
+        <v>0.210893594030173</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2873948282670013</v>
+        <v>0.2898567392513663</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>117</v>
@@ -1197,19 +1197,19 @@
         <v>120452</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>100263</v>
+        <v>99052</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>141483</v>
+        <v>139296</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2197170377354564</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.182889949200152</v>
+        <v>0.180682317549394</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2580811543127944</v>
+        <v>0.2540906811147893</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>238</v>
@@ -1218,19 +1218,19 @@
         <v>256606</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>227591</v>
+        <v>231268</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>285033</v>
+        <v>283763</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2345514721467219</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2080302704648873</v>
+        <v>0.2113915681342336</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2605353313237642</v>
+        <v>0.2593745296721305</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>409660</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>388950</v>
+        <v>387606</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>431078</v>
+        <v>430705</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7505489082085609</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7126051717329986</v>
+        <v>0.7101432607486337</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7897883221570631</v>
+        <v>0.7891064059698261</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>408</v>
@@ -1268,19 +1268,19 @@
         <v>427761</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>406730</v>
+        <v>408917</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>447950</v>
+        <v>449161</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7802829622645435</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7419188456872052</v>
+        <v>0.7459093188852103</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.817110050799848</v>
+        <v>0.8193176824506059</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>787</v>
@@ -1289,19 +1289,19 @@
         <v>837421</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>808994</v>
+        <v>810264</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>866436</v>
+        <v>862759</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7654485278532781</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7394646686762357</v>
+        <v>0.7406254703278694</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7919697295351126</v>
+        <v>0.7886084318657665</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>1165478</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1115822</v>
+        <v>1111311</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1226391</v>
+        <v>1224387</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3452572426242826</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3305471317985527</v>
+        <v>0.3292109810369103</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3633017312340767</v>
+        <v>0.3627081525995531</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>889</v>
@@ -1414,19 +1414,19 @@
         <v>917625</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>867058</v>
+        <v>868712</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>969321</v>
+        <v>966633</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2601966088962014</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2458580491156984</v>
+        <v>0.2463268590610563</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2748550545234285</v>
+        <v>0.2740929514469813</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1973</v>
@@ -1435,19 +1435,19 @@
         <v>2083104</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2012492</v>
+        <v>2009869</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2165349</v>
+        <v>2164057</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3017966246588439</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2915664501049707</v>
+        <v>0.2911864749765957</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3137122187532719</v>
+        <v>0.3135249312692941</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>2210203</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2149290</v>
+        <v>2151294</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2259859</v>
+        <v>2264370</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6547427573757174</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6366982687659234</v>
+        <v>0.6372918474004469</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6694528682014474</v>
+        <v>0.6707890189630896</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2432</v>
@@ -1485,19 +1485,19 @@
         <v>2609037</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2557341</v>
+        <v>2560029</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2659604</v>
+        <v>2657950</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7398033911037986</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7251449454765718</v>
+        <v>0.7259070485530187</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7541419508843022</v>
+        <v>0.7536731409389437</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4561</v>
@@ -1506,19 +1506,19 @@
         <v>4819239</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4736994</v>
+        <v>4738286</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4889851</v>
+        <v>4892474</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6982033753411561</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6862877812467282</v>
+        <v>0.6864750687307057</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7084335498950293</v>
+        <v>0.7088135250234043</v>
       </c>
     </row>
     <row r="15">
@@ -1849,19 +1849,19 @@
         <v>152480</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>130980</v>
+        <v>131803</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>173097</v>
+        <v>174938</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2635657588999548</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2264011406395303</v>
+        <v>0.2278243880147018</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2992020250135302</v>
+        <v>0.3023837314077495</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>135</v>
@@ -1870,19 +1870,19 @@
         <v>86165</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>73448</v>
+        <v>72934</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>101123</v>
+        <v>101050</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1048183479538166</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08934806781761893</v>
+        <v>0.08872338761299961</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1230152215840337</v>
+        <v>0.122926201028029</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>297</v>
@@ -1891,19 +1891,19 @@
         <v>238645</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>216455</v>
+        <v>214853</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>268146</v>
+        <v>264984</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1703918109559702</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1545483277718042</v>
+        <v>0.1534041843909758</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1914550473779357</v>
+        <v>0.1891977056037652</v>
       </c>
     </row>
     <row r="5">
@@ -1920,19 +1920,19 @@
         <v>426049</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>405432</v>
+        <v>403591</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>447549</v>
+        <v>446726</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7364342411000452</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7007979749864701</v>
+        <v>0.6976162685922507</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7735988593604698</v>
+        <v>0.7721756119852984</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1292</v>
@@ -1941,19 +1941,19 @@
         <v>735873</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>720915</v>
+        <v>720988</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>748590</v>
+        <v>749104</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8951816520461835</v>
+        <v>0.8951816520461834</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8769847784159661</v>
+        <v>0.8770737989719711</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9106519321823812</v>
+        <v>0.9112766123870004</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1821</v>
@@ -1962,19 +1962,19 @@
         <v>1161922</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1132421</v>
+        <v>1135583</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1184112</v>
+        <v>1185714</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8296081890440297</v>
+        <v>0.8296081890440298</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8085449526220644</v>
+        <v>0.8108022943962349</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8454516722281958</v>
+        <v>0.8465958156090244</v>
       </c>
     </row>
     <row r="6">
@@ -2066,19 +2066,19 @@
         <v>638318</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>593153</v>
+        <v>591707</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>686912</v>
+        <v>688124</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2864542573832702</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2661855066346876</v>
+        <v>0.2655368546815952</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3082614328824103</v>
+        <v>0.3088050506466344</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>658</v>
@@ -2087,19 +2087,19 @@
         <v>502270</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>470923</v>
+        <v>463514</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>541580</v>
+        <v>537571</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2314626744134533</v>
+        <v>0.2314626744134534</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2170168078341053</v>
+        <v>0.2136024739370909</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2495779639927022</v>
+        <v>0.2477303117435954</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1202</v>
@@ -2108,19 +2108,19 @@
         <v>1140589</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1080424</v>
+        <v>1083338</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1204999</v>
+        <v>1205667</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2593232917801712</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2456442244029363</v>
+        <v>0.2463069314983239</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2739676212786727</v>
+        <v>0.2741195638710469</v>
       </c>
     </row>
     <row r="8">
@@ -2137,19 +2137,19 @@
         <v>1590025</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1541431</v>
+        <v>1540219</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1635190</v>
+        <v>1636636</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7135457426167298</v>
+        <v>0.7135457426167297</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6917385671175897</v>
+        <v>0.691194949353366</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7338144933653127</v>
+        <v>0.7344631453184048</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2261</v>
@@ -2158,19 +2158,19 @@
         <v>1667714</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1628404</v>
+        <v>1632413</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1699061</v>
+        <v>1706470</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7685373255865466</v>
+        <v>0.7685373255865467</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7504220360072975</v>
+        <v>0.7522696882564047</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7829831921658947</v>
+        <v>0.786397526062909</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3707</v>
@@ -2179,19 +2179,19 @@
         <v>3257738</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3193328</v>
+        <v>3192660</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3317903</v>
+        <v>3314989</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7406767082198287</v>
+        <v>0.7406767082198289</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7260323787213276</v>
+        <v>0.7258804361289533</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7543557755970635</v>
+        <v>0.7536930685016763</v>
       </c>
     </row>
     <row r="9">
@@ -2283,19 +2283,19 @@
         <v>110282</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>92262</v>
+        <v>90030</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>130625</v>
+        <v>131704</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1549801478636311</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.129656890609422</v>
+        <v>0.1265204650483668</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1835687570350687</v>
+        <v>0.1850846214652055</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>157</v>
@@ -2304,19 +2304,19 @@
         <v>117389</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>100610</v>
+        <v>99214</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>136263</v>
+        <v>135544</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1602765802878128</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1373673774746687</v>
+        <v>0.1354616810443782</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1860470053000232</v>
+        <v>0.1850647454746181</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>261</v>
@@ -2325,19 +2325,19 @@
         <v>227671</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>200233</v>
+        <v>201387</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>255855</v>
+        <v>257103</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1576665587777414</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1386657203992699</v>
+        <v>0.1394642993007555</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1771848772584022</v>
+        <v>0.178049276710351</v>
       </c>
     </row>
     <row r="11">
@@ -2354,19 +2354,19 @@
         <v>601305</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>580962</v>
+        <v>579883</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>619325</v>
+        <v>621557</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.845019852136369</v>
+        <v>0.8450198521363688</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8164312429649314</v>
+        <v>0.8149153785347945</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8703431093905778</v>
+        <v>0.873479534951633</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>846</v>
@@ -2375,19 +2375,19 @@
         <v>615025</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>596151</v>
+        <v>596870</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>631804</v>
+        <v>633200</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8397234197121872</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8139529946999768</v>
+        <v>0.814935254525382</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8626326225253312</v>
+        <v>0.8645383189556217</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1423</v>
@@ -2396,19 +2396,19 @@
         <v>1216330</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1188146</v>
+        <v>1186898</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1243768</v>
+        <v>1242614</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8423334412222584</v>
+        <v>0.8423334412222585</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.822815122741598</v>
+        <v>0.8219507232896489</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8613342796007299</v>
+        <v>0.8605357006992445</v>
       </c>
     </row>
     <row r="12">
@@ -2500,19 +2500,19 @@
         <v>901081</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>839095</v>
+        <v>845430</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>957922</v>
+        <v>961528</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2561009315515644</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.238483593468486</v>
+        <v>0.2402840662821163</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2722561659860424</v>
+        <v>0.2732809913135259</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>950</v>
@@ -2521,19 +2521,19 @@
         <v>705824</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>663903</v>
+        <v>662653</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>748096</v>
+        <v>747912</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1895115930667039</v>
+        <v>0.189511593066704</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1782559355100237</v>
+        <v>0.1779204204718381</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2008617363751275</v>
+        <v>0.2008121266595436</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1760</v>
@@ -2542,19 +2542,19 @@
         <v>1606904</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1540170</v>
+        <v>1535420</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1687939</v>
+        <v>1681642</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2218594162230827</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2126455908651232</v>
+        <v>0.2119898175037659</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.233047545234044</v>
+        <v>0.2321781178195084</v>
       </c>
     </row>
     <row r="14">
@@ -2571,19 +2571,19 @@
         <v>2617378</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2560537</v>
+        <v>2556931</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2679364</v>
+        <v>2673029</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7438990684484356</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7277438340139576</v>
+        <v>0.7267190086864739</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.761516406531514</v>
+        <v>0.7597159337178837</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4399</v>
@@ -2592,19 +2592,19 @@
         <v>3018611</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2976339</v>
+        <v>2976523</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3060532</v>
+        <v>3061782</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.810488406933296</v>
+        <v>0.8104884069332962</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7991382636248725</v>
+        <v>0.7991878733404567</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8217440644899762</v>
+        <v>0.822079579528162</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6951</v>
@@ -2613,19 +2613,19 @@
         <v>5635991</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5554956</v>
+        <v>5561253</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5702725</v>
+        <v>5707475</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7781405837769174</v>
+        <v>0.7781405837769172</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.766952454765956</v>
+        <v>0.7678218821804915</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7873544091348769</v>
+        <v>0.7880101824962343</v>
       </c>
     </row>
     <row r="15">
